--- a/biology/Zoologie/Les_Fourmis_(jeu_vidéo)/Les_Fourmis_(jeu_vidéo).xlsx
+++ b/biology/Zoologie/Les_Fourmis_(jeu_vidéo)/Les_Fourmis_(jeu_vidéo).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_Fourmis_(jeu_vid%C3%A9o)</t>
+          <t>Les_Fourmis_(jeu_vidéo)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Fourmis (Empire of the Ants en version anglaise) est un jeu vidéo de stratégie en temps réel développé et publié par Microïds en 2000 sur PC.
 Le jeu est basé sur le livre Les Fourmis de Bernard Werber.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_Fourmis_(jeu_vid%C3%A9o)</t>
+          <t>Les_Fourmis_(jeu_vidéo)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Vous incarnez le dirigeant d’une fourmilière de l’empire de Bel-o-kan, la fourmilière mère, que vous devez aider dans différentes missions (exemple : tuer le plus terrible des prédateurs, une mante religieuse). Le joueur n’a pour seul choix que la civilisation myrmycéenne des fourmis rousses. D’autres civilisations s’opposent à lui : abeilles, guêpes, termites, fourmis moissonneuses, tisserandes, rouges et naines. Il y a également des proies (chenilles…) et des prédateurs (mantes religieuses…).
 Vous devez gérer deux environnements : la fourmilière et le grand extérieur. Il est possible de zoomer, de faire pivoter l’angle de vue, de se servir de la mini-carte pour visualiser les zones de ressources exploitables.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Les_Fourmis_(jeu_vid%C3%A9o)</t>
+          <t>Les_Fourmis_(jeu_vidéo)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Équipe de développement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Directeur du développement : Didier Poulain
 Chef de projet : Julien Marty
@@ -573,7 +589,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Les_Fourmis_(jeu_vid%C3%A9o)</t>
+          <t>Les_Fourmis_(jeu_vidéo)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,7 +607,9 @@
           <t>Extension</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe un add-on, Les Fourmis : les Guerres de l’Ouest.
 </t>
@@ -604,7 +622,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Les_Fourmis_(jeu_vid%C3%A9o)</t>
+          <t>Les_Fourmis_(jeu_vidéo)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -622,7 +640,9 @@
           <t>Publicité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La publicité du jeu a été portée par le slogan : « Plongez-vous dans l’univers fascinant des fourmis. »
 </t>
@@ -635,7 +655,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Les_Fourmis_(jeu_vid%C3%A9o)</t>
+          <t>Les_Fourmis_(jeu_vidéo)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -654,6 +674,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
